--- a/2_цикл_емиасайди.xlsx
+++ b/2_цикл_емиасайди.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murad_satabaev\Documents\GitHub\final_framework\2 цикл\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murad_satabaev\Documents\GitHub\final_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216BF3E-9D7D-4AB8-8B0B-918B8E9BAD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44358401-3F43-495F-A9C7-241845E3055A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$5005</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="5005">
   <si>
     <t>16229424</t>
   </si>
@@ -2900,24 +2903,6 @@
     <t>10775870</t>
   </si>
   <si>
-    <t>15949110</t>
-  </si>
-  <si>
-    <t>16696887</t>
-  </si>
-  <si>
-    <t>10714662</t>
-  </si>
-  <si>
-    <t>17363684</t>
-  </si>
-  <si>
-    <t>10584329</t>
-  </si>
-  <si>
-    <t>16422415</t>
-  </si>
-  <si>
     <t>17265805</t>
   </si>
   <si>
@@ -3023,72 +3008,6 @@
     <t>31441997</t>
   </si>
   <si>
-    <t>25150006</t>
-  </si>
-  <si>
-    <t>19964245</t>
-  </si>
-  <si>
-    <t>20979630</t>
-  </si>
-  <si>
-    <t>23494916</t>
-  </si>
-  <si>
-    <t>21498077</t>
-  </si>
-  <si>
-    <t>21806954</t>
-  </si>
-  <si>
-    <t>19695493</t>
-  </si>
-  <si>
-    <t>10119247</t>
-  </si>
-  <si>
-    <t>17023061</t>
-  </si>
-  <si>
-    <t>10130464</t>
-  </si>
-  <si>
-    <t>18513033</t>
-  </si>
-  <si>
-    <t>19633426</t>
-  </si>
-  <si>
-    <t>25241626</t>
-  </si>
-  <si>
-    <t>10555315</t>
-  </si>
-  <si>
-    <t>199624816</t>
-  </si>
-  <si>
-    <t>24971471</t>
-  </si>
-  <si>
-    <t>10531391</t>
-  </si>
-  <si>
-    <t>19580149</t>
-  </si>
-  <si>
-    <t>2245272707</t>
-  </si>
-  <si>
-    <t>23439615</t>
-  </si>
-  <si>
-    <t>22474695</t>
-  </si>
-  <si>
-    <t>21089321</t>
-  </si>
-  <si>
     <t>21164961</t>
   </si>
   <si>
@@ -3155,81 +3074,9 @@
     <t>30612532</t>
   </si>
   <si>
-    <t>19428054</t>
-  </si>
-  <si>
-    <t>17853389</t>
-  </si>
-  <si>
     <t>23176871</t>
   </si>
   <si>
-    <t>17311945</t>
-  </si>
-  <si>
-    <t>17068821</t>
-  </si>
-  <si>
-    <t>18354846</t>
-  </si>
-  <si>
-    <t>18344665</t>
-  </si>
-  <si>
-    <t>19164002</t>
-  </si>
-  <si>
-    <t>18578180608036</t>
-  </si>
-  <si>
-    <t>10124591</t>
-  </si>
-  <si>
-    <t>17274821</t>
-  </si>
-  <si>
-    <t>1769867416</t>
-  </si>
-  <si>
-    <t>10445327</t>
-  </si>
-  <si>
-    <t>10400972</t>
-  </si>
-  <si>
-    <t>18026254</t>
-  </si>
-  <si>
-    <t>19022333</t>
-  </si>
-  <si>
-    <t>15972952</t>
-  </si>
-  <si>
-    <t>19132637</t>
-  </si>
-  <si>
-    <t>16498457</t>
-  </si>
-  <si>
-    <t>1204805416</t>
-  </si>
-  <si>
-    <t>19223342</t>
-  </si>
-  <si>
-    <t>17332252</t>
-  </si>
-  <si>
-    <t>1459330341</t>
-  </si>
-  <si>
-    <t>16546699</t>
-  </si>
-  <si>
-    <t>10529670</t>
-  </si>
-  <si>
     <t>17865979</t>
   </si>
   <si>
@@ -7475,9 +7322,6 @@
     <t>30000007825110</t>
   </si>
   <si>
-    <t>17929734</t>
-  </si>
-  <si>
     <t>29406166</t>
   </si>
   <si>
@@ -7865,81 +7709,15 @@
     <t>16106518</t>
   </si>
   <si>
-    <t>19826714</t>
-  </si>
-  <si>
-    <t>17667176</t>
-  </si>
-  <si>
-    <t>17695206</t>
-  </si>
-  <si>
-    <t>17683814</t>
-  </si>
-  <si>
-    <t>18752709</t>
-  </si>
-  <si>
-    <t>17756217</t>
-  </si>
-  <si>
-    <t>18844437</t>
-  </si>
-  <si>
-    <t>17706614</t>
-  </si>
-  <si>
-    <t>19006969</t>
-  </si>
-  <si>
-    <t>17710326</t>
-  </si>
-  <si>
-    <t>17785045</t>
-  </si>
-  <si>
-    <t>17799748</t>
-  </si>
-  <si>
-    <t>16285714</t>
-  </si>
-  <si>
     <t>21271277</t>
   </si>
   <si>
-    <t>10510362</t>
-  </si>
-  <si>
-    <t>15934541</t>
-  </si>
-  <si>
-    <t>18863535</t>
-  </si>
-  <si>
     <t>22887824</t>
   </si>
   <si>
     <t>25772751</t>
   </si>
   <si>
-    <t>17855107</t>
-  </si>
-  <si>
-    <t>17533405</t>
-  </si>
-  <si>
-    <t>1826680091</t>
-  </si>
-  <si>
-    <t>18125936</t>
-  </si>
-  <si>
-    <t>21926709</t>
-  </si>
-  <si>
-    <t>22265905</t>
-  </si>
-  <si>
     <t>24189010</t>
   </si>
   <si>
@@ -7964,9 +7742,6 @@
     <t>22897997</t>
   </si>
   <si>
-    <t>17871859</t>
-  </si>
-  <si>
     <t>30000009755477</t>
   </si>
   <si>
@@ -7976,141 +7751,33 @@
     <t>30607685</t>
   </si>
   <si>
-    <t>19992471</t>
-  </si>
-  <si>
     <t>30741903</t>
   </si>
   <si>
-    <t>10337088</t>
-  </si>
-  <si>
-    <t>1034083466</t>
-  </si>
-  <si>
-    <t>10437551</t>
-  </si>
-  <si>
-    <t>10494537</t>
-  </si>
-  <si>
-    <t>10603280</t>
-  </si>
-  <si>
-    <t>10699288</t>
-  </si>
-  <si>
-    <t>10719189</t>
-  </si>
-  <si>
-    <t>10763547</t>
-  </si>
-  <si>
-    <t>10837641</t>
-  </si>
-  <si>
-    <t>1254501516</t>
-  </si>
-  <si>
-    <t>1406382941</t>
-  </si>
-  <si>
-    <t>1414641366</t>
-  </si>
-  <si>
-    <t>1436752666</t>
-  </si>
-  <si>
-    <t>146978766</t>
-  </si>
-  <si>
-    <t>1585685166</t>
-  </si>
-  <si>
-    <t>15988801</t>
-  </si>
-  <si>
-    <t>1602660191</t>
-  </si>
-  <si>
-    <t>16077553</t>
-  </si>
-  <si>
-    <t>16144661</t>
-  </si>
-  <si>
-    <t>163022066</t>
-  </si>
-  <si>
     <t>16302960</t>
   </si>
   <si>
-    <t>16319581</t>
-  </si>
-  <si>
-    <t>16325696</t>
-  </si>
-  <si>
-    <t>1637303141</t>
-  </si>
-  <si>
-    <t>16436841</t>
-  </si>
-  <si>
     <t>16446719</t>
   </si>
   <si>
-    <t>16448582</t>
-  </si>
-  <si>
-    <t>16474818</t>
-  </si>
-  <si>
-    <t>16476363</t>
-  </si>
-  <si>
-    <t>16498447</t>
-  </si>
-  <si>
-    <t>16511316</t>
-  </si>
-  <si>
-    <t>16528421</t>
-  </si>
-  <si>
-    <t>16548699</t>
-  </si>
-  <si>
     <t>17675458</t>
   </si>
   <si>
     <t>17803341</t>
   </si>
   <si>
-    <t>17681058</t>
-  </si>
-  <si>
     <t>18450837</t>
   </si>
   <si>
     <t>18976813</t>
   </si>
   <si>
-    <t>16785036</t>
-  </si>
-  <si>
-    <t>19159950</t>
-  </si>
-  <si>
     <t>20524895</t>
   </si>
   <si>
     <t>17349672</t>
   </si>
   <si>
-    <t>10701930</t>
-  </si>
-  <si>
     <t>19810089</t>
   </si>
   <si>
@@ -8123,9 +7790,6 @@
     <t>17341265</t>
   </si>
   <si>
-    <t>17351337</t>
-  </si>
-  <si>
     <t>17722485</t>
   </si>
   <si>
@@ -8135,9 +7799,6 @@
     <t>2247337035</t>
   </si>
   <si>
-    <t>18309289</t>
-  </si>
-  <si>
     <t>23704999</t>
   </si>
   <si>
@@ -8273,9 +7934,6 @@
     <t>18106121</t>
   </si>
   <si>
-    <t>18274278</t>
-  </si>
-  <si>
     <t>18276296</t>
   </si>
   <si>
@@ -10439,117 +10097,6 @@
     <t>10556950</t>
   </si>
   <si>
-    <t>30900917</t>
-  </si>
-  <si>
-    <t>10850789</t>
-  </si>
-  <si>
-    <t>1139489341</t>
-  </si>
-  <si>
-    <t>16953032</t>
-  </si>
-  <si>
-    <t>24488160</t>
-  </si>
-  <si>
-    <t>30000009160196</t>
-  </si>
-  <si>
-    <t>31216544</t>
-  </si>
-  <si>
-    <t>22511782</t>
-  </si>
-  <si>
-    <t>30784483</t>
-  </si>
-  <si>
-    <t>2246385478</t>
-  </si>
-  <si>
-    <t>18938939</t>
-  </si>
-  <si>
-    <t>24109855</t>
-  </si>
-  <si>
-    <t>16924786</t>
-  </si>
-  <si>
-    <t>10117096</t>
-  </si>
-  <si>
-    <t>24103837</t>
-  </si>
-  <si>
-    <t>16443711</t>
-  </si>
-  <si>
-    <t>15946920</t>
-  </si>
-  <si>
-    <t>16009737</t>
-  </si>
-  <si>
-    <t>16184944</t>
-  </si>
-  <si>
-    <t>17548342</t>
-  </si>
-  <si>
-    <t>16166688</t>
-  </si>
-  <si>
-    <t>18598817</t>
-  </si>
-  <si>
-    <t>17367325</t>
-  </si>
-  <si>
-    <t>17181584</t>
-  </si>
-  <si>
-    <t>17076537</t>
-  </si>
-  <si>
-    <t>18560728</t>
-  </si>
-  <si>
-    <t>10803731</t>
-  </si>
-  <si>
-    <t>10795980</t>
-  </si>
-  <si>
-    <t>16607145</t>
-  </si>
-  <si>
-    <t>16001110</t>
-  </si>
-  <si>
-    <t>16916632</t>
-  </si>
-  <si>
-    <t>17083605</t>
-  </si>
-  <si>
-    <t>17632743</t>
-  </si>
-  <si>
-    <t>18221171</t>
-  </si>
-  <si>
-    <t>18099991</t>
-  </si>
-  <si>
-    <t>17912135</t>
-  </si>
-  <si>
-    <t>16984658</t>
-  </si>
-  <si>
     <t>17283063</t>
   </si>
   <si>
@@ -13913,9 +13460,6 @@
     <t>30000008403786</t>
   </si>
   <si>
-    <t>30000011217339</t>
-  </si>
-  <si>
     <t>589797216</t>
   </si>
   <si>
@@ -14297,15 +13841,9 @@
     <t>31205007</t>
   </si>
   <si>
-    <t>16154393</t>
-  </si>
-  <si>
     <t>10462214</t>
   </si>
   <si>
-    <t>16631473</t>
-  </si>
-  <si>
     <t>10240339</t>
   </si>
   <si>
@@ -15369,9 +14907,6 @@
   </si>
   <si>
     <t>17420738</t>
-  </si>
-  <si>
-    <t>17654723</t>
   </si>
   <si>
     <t>17928098</t>
@@ -15840,17 +15375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5161"/>
+  <dimension ref="A1:A5005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5160</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -40871,786 +40406,6 @@
     <row r="5005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5005" t="s">
         <v>5003</v>
-      </c>
-    </row>
-    <row r="5006" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5006" t="s">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="5007" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5007" t="s">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="5008" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5008" t="s">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="5009" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5009" t="s">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="5010" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5010" t="s">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="5011" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5011" t="s">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="5012" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5012" t="s">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="5013" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5013" t="s">
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="5014" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5014" t="s">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="5015" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5015" t="s">
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="5016" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5016" t="s">
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="5017" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5017" t="s">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="5018" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5018" t="s">
-        <v>5016</v>
-      </c>
-    </row>
-    <row r="5019" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5019" t="s">
-        <v>5017</v>
-      </c>
-    </row>
-    <row r="5020" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5020" t="s">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="5021" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5021" t="s">
-        <v>5019</v>
-      </c>
-    </row>
-    <row r="5022" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5022" t="s">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="5023" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5023" t="s">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="5024" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5024" t="s">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="5025" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5025" t="s">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="5026" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5026" t="s">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="5027" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5027" t="s">
-        <v>5025</v>
-      </c>
-    </row>
-    <row r="5028" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5028" t="s">
-        <v>5026</v>
-      </c>
-    </row>
-    <row r="5029" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5029" t="s">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="5030" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5030" t="s">
-        <v>5028</v>
-      </c>
-    </row>
-    <row r="5031" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5031" t="s">
-        <v>5029</v>
-      </c>
-    </row>
-    <row r="5032" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5032" t="s">
-        <v>5030</v>
-      </c>
-    </row>
-    <row r="5033" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5033" t="s">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="5034" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5034" t="s">
-        <v>5032</v>
-      </c>
-    </row>
-    <row r="5035" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5035" t="s">
-        <v>5033</v>
-      </c>
-    </row>
-    <row r="5036" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5036" t="s">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="5037" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5037" t="s">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="5038" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5038" t="s">
-        <v>5036</v>
-      </c>
-    </row>
-    <row r="5039" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5039" t="s">
-        <v>5037</v>
-      </c>
-    </row>
-    <row r="5040" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5040" t="s">
-        <v>5038</v>
-      </c>
-    </row>
-    <row r="5041" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5041" t="s">
-        <v>5039</v>
-      </c>
-    </row>
-    <row r="5042" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5042" t="s">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="5043" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5043" t="s">
-        <v>5041</v>
-      </c>
-    </row>
-    <row r="5044" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5044" t="s">
-        <v>5042</v>
-      </c>
-    </row>
-    <row r="5045" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5045" t="s">
-        <v>5043</v>
-      </c>
-    </row>
-    <row r="5046" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5046" t="s">
-        <v>5044</v>
-      </c>
-    </row>
-    <row r="5047" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5047" t="s">
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="5048" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5048" t="s">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="5049" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5049" t="s">
-        <v>5047</v>
-      </c>
-    </row>
-    <row r="5050" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5050" t="s">
-        <v>5048</v>
-      </c>
-    </row>
-    <row r="5051" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5051" t="s">
-        <v>5049</v>
-      </c>
-    </row>
-    <row r="5052" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5052" t="s">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="5053" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5053" t="s">
-        <v>5051</v>
-      </c>
-    </row>
-    <row r="5054" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5054" t="s">
-        <v>5052</v>
-      </c>
-    </row>
-    <row r="5055" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5055" t="s">
-        <v>5053</v>
-      </c>
-    </row>
-    <row r="5056" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5056" t="s">
-        <v>5054</v>
-      </c>
-    </row>
-    <row r="5057" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5057" t="s">
-        <v>5055</v>
-      </c>
-    </row>
-    <row r="5058" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5058" t="s">
-        <v>5056</v>
-      </c>
-    </row>
-    <row r="5059" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5059" t="s">
-        <v>5057</v>
-      </c>
-    </row>
-    <row r="5060" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5060" t="s">
-        <v>5058</v>
-      </c>
-    </row>
-    <row r="5061" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5061" t="s">
-        <v>5059</v>
-      </c>
-    </row>
-    <row r="5062" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5062" t="s">
-        <v>5060</v>
-      </c>
-    </row>
-    <row r="5063" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5063" t="s">
-        <v>5061</v>
-      </c>
-    </row>
-    <row r="5064" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5064" t="s">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="5065" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5065" t="s">
-        <v>5063</v>
-      </c>
-    </row>
-    <row r="5066" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5066" t="s">
-        <v>5064</v>
-      </c>
-    </row>
-    <row r="5067" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5067" t="s">
-        <v>5065</v>
-      </c>
-    </row>
-    <row r="5068" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5068" t="s">
-        <v>5066</v>
-      </c>
-    </row>
-    <row r="5069" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5069" t="s">
-        <v>5067</v>
-      </c>
-    </row>
-    <row r="5070" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5070" t="s">
-        <v>5068</v>
-      </c>
-    </row>
-    <row r="5071" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5071" t="s">
-        <v>5069</v>
-      </c>
-    </row>
-    <row r="5072" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5072" t="s">
-        <v>5070</v>
-      </c>
-    </row>
-    <row r="5073" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5073" t="s">
-        <v>5071</v>
-      </c>
-    </row>
-    <row r="5074" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5074" t="s">
-        <v>5072</v>
-      </c>
-    </row>
-    <row r="5075" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5075" t="s">
-        <v>5073</v>
-      </c>
-    </row>
-    <row r="5076" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5076" t="s">
-        <v>5074</v>
-      </c>
-    </row>
-    <row r="5077" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5077" t="s">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="5078" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5078" t="s">
-        <v>5076</v>
-      </c>
-    </row>
-    <row r="5079" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5079" t="s">
-        <v>5077</v>
-      </c>
-    </row>
-    <row r="5080" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5080" t="s">
-        <v>5078</v>
-      </c>
-    </row>
-    <row r="5081" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5081" t="s">
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="5082" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5082" t="s">
-        <v>5080</v>
-      </c>
-    </row>
-    <row r="5083" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5083" t="s">
-        <v>5081</v>
-      </c>
-    </row>
-    <row r="5084" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5084" t="s">
-        <v>5082</v>
-      </c>
-    </row>
-    <row r="5085" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5085" t="s">
-        <v>5083</v>
-      </c>
-    </row>
-    <row r="5086" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5086" t="s">
-        <v>5084</v>
-      </c>
-    </row>
-    <row r="5087" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5087" t="s">
-        <v>5085</v>
-      </c>
-    </row>
-    <row r="5088" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5088" t="s">
-        <v>5086</v>
-      </c>
-    </row>
-    <row r="5089" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5089" t="s">
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="5090" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5090" t="s">
-        <v>5088</v>
-      </c>
-    </row>
-    <row r="5091" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5091" t="s">
-        <v>5089</v>
-      </c>
-    </row>
-    <row r="5092" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5092" t="s">
-        <v>5090</v>
-      </c>
-    </row>
-    <row r="5093" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5093" t="s">
-        <v>5091</v>
-      </c>
-    </row>
-    <row r="5094" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5094" t="s">
-        <v>5092</v>
-      </c>
-    </row>
-    <row r="5095" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5095" t="s">
-        <v>5093</v>
-      </c>
-    </row>
-    <row r="5096" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5096" t="s">
-        <v>5094</v>
-      </c>
-    </row>
-    <row r="5097" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5097" t="s">
-        <v>5095</v>
-      </c>
-    </row>
-    <row r="5098" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5098" t="s">
-        <v>5096</v>
-      </c>
-    </row>
-    <row r="5099" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5099" t="s">
-        <v>5097</v>
-      </c>
-    </row>
-    <row r="5100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5100" t="s">
-        <v>5098</v>
-      </c>
-    </row>
-    <row r="5101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5101" t="s">
-        <v>5099</v>
-      </c>
-    </row>
-    <row r="5102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5102" t="s">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="5103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5103" t="s">
-        <v>5101</v>
-      </c>
-    </row>
-    <row r="5104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5104" t="s">
-        <v>5102</v>
-      </c>
-    </row>
-    <row r="5105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5105" t="s">
-        <v>5103</v>
-      </c>
-    </row>
-    <row r="5106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5106" t="s">
-        <v>5104</v>
-      </c>
-    </row>
-    <row r="5107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5107" t="s">
-        <v>5105</v>
-      </c>
-    </row>
-    <row r="5108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5108" t="s">
-        <v>5106</v>
-      </c>
-    </row>
-    <row r="5109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5109" t="s">
-        <v>5107</v>
-      </c>
-    </row>
-    <row r="5110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5110" t="s">
-        <v>5108</v>
-      </c>
-    </row>
-    <row r="5111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5111" t="s">
-        <v>5109</v>
-      </c>
-    </row>
-    <row r="5112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5112" t="s">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="5113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5113" t="s">
-        <v>5111</v>
-      </c>
-    </row>
-    <row r="5114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5114" t="s">
-        <v>5112</v>
-      </c>
-    </row>
-    <row r="5115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5115" t="s">
-        <v>5113</v>
-      </c>
-    </row>
-    <row r="5116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5116" t="s">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="5117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5117" t="s">
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="5118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5118" t="s">
-        <v>5116</v>
-      </c>
-    </row>
-    <row r="5119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5119" t="s">
-        <v>5117</v>
-      </c>
-    </row>
-    <row r="5120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5120" t="s">
-        <v>5118</v>
-      </c>
-    </row>
-    <row r="5121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5121" t="s">
-        <v>5119</v>
-      </c>
-    </row>
-    <row r="5122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5122" t="s">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="5123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5123" t="s">
-        <v>5121</v>
-      </c>
-    </row>
-    <row r="5124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5124" t="s">
-        <v>5122</v>
-      </c>
-    </row>
-    <row r="5125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5125" t="s">
-        <v>5123</v>
-      </c>
-    </row>
-    <row r="5126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5126" t="s">
-        <v>5124</v>
-      </c>
-    </row>
-    <row r="5127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5127" t="s">
-        <v>5125</v>
-      </c>
-    </row>
-    <row r="5128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5128" t="s">
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="5129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5129" t="s">
-        <v>5127</v>
-      </c>
-    </row>
-    <row r="5130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5130" t="s">
-        <v>5128</v>
-      </c>
-    </row>
-    <row r="5131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5131" t="s">
-        <v>5129</v>
-      </c>
-    </row>
-    <row r="5132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5132" t="s">
-        <v>5130</v>
-      </c>
-    </row>
-    <row r="5133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5133" t="s">
-        <v>5131</v>
-      </c>
-    </row>
-    <row r="5134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5134" t="s">
-        <v>5132</v>
-      </c>
-    </row>
-    <row r="5135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5135" t="s">
-        <v>5133</v>
-      </c>
-    </row>
-    <row r="5136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5136" t="s">
-        <v>5134</v>
-      </c>
-    </row>
-    <row r="5137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5137" t="s">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="5138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5138" t="s">
-        <v>5136</v>
-      </c>
-    </row>
-    <row r="5139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5139" t="s">
-        <v>5137</v>
-      </c>
-    </row>
-    <row r="5140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5140" t="s">
-        <v>5138</v>
-      </c>
-    </row>
-    <row r="5141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5141" t="s">
-        <v>5139</v>
-      </c>
-    </row>
-    <row r="5142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5142" t="s">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="5143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5143" t="s">
-        <v>5141</v>
-      </c>
-    </row>
-    <row r="5144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5144" t="s">
-        <v>5142</v>
-      </c>
-    </row>
-    <row r="5145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5145" t="s">
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="5146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5146" t="s">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="5147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5147" t="s">
-        <v>5145</v>
-      </c>
-    </row>
-    <row r="5148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5148" t="s">
-        <v>5146</v>
-      </c>
-    </row>
-    <row r="5149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5149" t="s">
-        <v>5147</v>
-      </c>
-    </row>
-    <row r="5150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5150" t="s">
-        <v>5148</v>
-      </c>
-    </row>
-    <row r="5151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5151" t="s">
-        <v>5149</v>
-      </c>
-    </row>
-    <row r="5152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5152" t="s">
-        <v>5150</v>
-      </c>
-    </row>
-    <row r="5153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5153" t="s">
-        <v>5151</v>
-      </c>
-    </row>
-    <row r="5154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5154" t="s">
-        <v>5152</v>
-      </c>
-    </row>
-    <row r="5155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5155" t="s">
-        <v>5153</v>
-      </c>
-    </row>
-    <row r="5156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5156" t="s">
-        <v>5154</v>
-      </c>
-    </row>
-    <row r="5157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5157" t="s">
-        <v>5155</v>
-      </c>
-    </row>
-    <row r="5158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5158" t="s">
-        <v>5156</v>
-      </c>
-    </row>
-    <row r="5159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5159" t="s">
-        <v>5157</v>
-      </c>
-    </row>
-    <row r="5160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5160" t="s">
-        <v>5158</v>
-      </c>
-    </row>
-    <row r="5161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5161" t="s">
-        <v>5159</v>
       </c>
     </row>
   </sheetData>
